--- a/文件读写/读写excel/复制的工作表.xlsx
+++ b/文件读写/读写excel/复制的工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\学习资料\编程学习\pathon\基础操作\basic\文件读写\读写excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85821B67-A652-42AA-ABF9-44EC655658F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{857EB905-EE01-4D39-89A5-5E9EE4EF8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6535C3-CC3B-4F85-AC62-5C284F6A1E0C}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{1D90643D-89F6-4922-A51E-7B14DF7760C0}"/>
   </bookViews>
   <sheets>
     <sheet name="QA2" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BC3182-CD6E-43CF-8845-CF49E9DDF261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211B4023-1F29-4D8B-8CC2-9A2BBE576CDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -200,7 +200,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A68932-A071-4C56-B2B0-F5E276695A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3B3348-CC14-46F8-9FAF-A3B4BCE3A339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2088CFBC-9A63-49D3-981C-07A88D66E680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676944EB-F9AC-4AE1-AA61-7218BACF398E}">
   <dimension ref="A2:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
